--- a/biology/Botanique/Liste_de_fruits_comestibles/Liste_de_fruits_comestibles.xlsx
+++ b/biology/Botanique/Liste_de_fruits_comestibles/Liste_de_fruits_comestibles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits comestibles sont généralement des fruits charnus (baies, drupes, etc.), parfois des fruits secs, produits par des arbres, des arbustes ou des plantes herbacées appartenant à diverses familles botaniques. Les fruits comestibles proviennent généralement de cultures (arbres fruitiers, plantes potagères), mais peuvent aussi êtres récoltés sur des plantes sauvages dans la nature.
 Ils sont consommés, selon leur teneur en sucres, soit comme des fruits (au sens culinaire du terme) pour le dessert ou la pâtisserie, soit comme des légumes, et dans certains cas comme des féculents (cas de la banane plantain).
@@ -514,7 +526,9 @@
           <t>Fruits des zones tempérée et méditerranéenne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abricot
@@ -607,9 +621,11 @@
           <t>Fruits des zones tropicale et subtropicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits tropicaux sont caractérisés par leur intolérance au froid[1] et poussent principalement dans les régions au climat tropical. Ces fruits sont désignés par « fruits exotiques » dans les pays où ils sont importés et consommés.  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits tropicaux sont caractérisés par leur intolérance au froid et poussent principalement dans les régions au climat tropical. Ces fruits sont désignés par « fruits exotiques » dans les pays où ils sont importés et consommés.  
 Abricot des Antilles, Abricot-pays ou Mamey
 Les agrumes
 Bigarade ou Orange amère
@@ -703,7 +719,9 @@
           <t>Légumes fruits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les légumes-fruits, consommés en tant que légumes, mais constituant le fruit de la plante :
 Aubergine
